--- a/biology/Zoologie/Dircenna_jemina/Dircenna_jemina.xlsx
+++ b/biology/Zoologie/Dircenna_jemina/Dircenna_jemina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dircenna jemina est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Dircenna.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna jemina a été décrit par Carl Geyer  en 1837 sous le nom initial de Ceratinia jemina[1].
-Sous-espèces
-Dircenna jemina jemina; présent au Venezuela
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna jemina a été décrit par Carl Geyer  en 1837 sous le nom initial de Ceratinia jemina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dircenna_jemina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_jemina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna jemina jemina; présent au Venezuela
 Dircenna jemina chiriquensis Haensch, 1909; présent au Mexique et à Panama.
 Dircenna jemina varina (Hewitson, 1869); présent en Équateur
 Dircenna jemina visina Haensch, 1903; présent en Équateur
@@ -526,41 +575,8 @@
 Dircenna jemina ssp; présent en Colombie.
 Dircenna jemina ssp; présent en Colombie.
 Dircenna jemina ssp; présent au Venezuela
-Dircenna jemina ssp; présent en Équateur[1].
-Ou 8 sous-espèces non nommées [2].
-Nom vernaculaire
-Dircenna jemina se nomme Jemina Clearwing en anglais[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dircenna_jemina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dircenna_jemina</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna jemina est un papillon d'une envergure d'environ 70 mm au corps à abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave[4]. Les ailes sont translucides plus ou moins colorées d'ocre suivant les sous-espèces, finement veinées et bordées de marron.
+Dircenna jemina ssp; présent en Équateur.
+Ou 8 sous-espèces non nommées .
 </t>
         </is>
       </c>
@@ -586,12 +602,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna jemina se nomme Jemina Clearwing en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -616,15 +639,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna jemina est un papillon d'une envergure d'environ 70 mm au corps à abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont translucides plus ou moins colorées d'ocre suivant les sous-espèces, finement veinées et bordées de marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dircenna_jemina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_jemina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna olyra est présent  au Mexique, au Guatemala, à Panama, au Venezuela, en Colombie et en Équateur[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna olyra est présent  au Mexique, au Guatemala, à Panama, au Venezuela, en Colombie et en Équateur,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dircenna_jemina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_jemina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Dircenna jemina, sur Wikimedia CommonsDircenna jemina, sur Wikispecies
 </t>
